--- a/Planning/Planning (21-11-16).xlsx
+++ b/Planning/Planning (21-11-16).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>week 1</t>
   </si>
@@ -57,6 +57,9 @@
     <t>taken</t>
   </si>
   <si>
+    <t>alles checken</t>
+  </si>
+  <si>
     <t>bedrijfsplan</t>
   </si>
   <si>
@@ -66,6 +69,15 @@
     <t>logo</t>
   </si>
   <si>
+    <t>buurstand</t>
+  </si>
+  <si>
+    <t>styleblad</t>
+  </si>
+  <si>
+    <t>eindweek styleblad af</t>
+  </si>
+  <si>
     <t>wapen maken</t>
   </si>
   <si>
@@ -75,43 +87,7 @@
     <t>script</t>
   </si>
   <si>
-    <t>styleguild</t>
-  </si>
-  <si>
-    <t>week 11</t>
-  </si>
-  <si>
-    <t>styleguild af</t>
-  </si>
-  <si>
-    <t>stijlblad</t>
-  </si>
-  <si>
-    <t>logo af</t>
-  </si>
-  <si>
-    <t>stijlblad af</t>
-  </si>
-  <si>
-    <t>bedrijfsplan af</t>
-  </si>
-  <si>
-    <t>script af</t>
-  </si>
-  <si>
-    <t>wapen maken af</t>
-  </si>
-  <si>
-    <t>vakantie af</t>
-  </si>
-  <si>
-    <t>dingen inhalen als ze niet af zijn</t>
-  </si>
-  <si>
-    <t>alles afronden</t>
-  </si>
-  <si>
-    <t>maken presentatie</t>
+    <t>terrein afronden</t>
   </si>
 </sst>
 </file>
@@ -460,18 +436,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L7"/>
+  <dimension ref="B2:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="12" width="17.77734375" customWidth="1"/>
+    <col min="2" max="11" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,11 +478,8 @@
       <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -514,16 +487,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
@@ -535,61 +508,58 @@
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
+      <c r="H9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
